--- a/sputnik/personal/ee/99ee.xlsx
+++ b/sputnik/personal/ee/99ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +101,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -154,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -186,6 +193,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,10 +501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,11 +598,11 @@
         <f t="shared" ref="F4:F5" si="0">D4*E4</f>
         <v>2266.7200000000003</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="15">
         <f>SUM(F4,F5)</f>
         <v>2919.1900000000005</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="15">
         <v>2879.19</v>
       </c>
     </row>
@@ -845,11 +853,11 @@
         <f>D14*E14</f>
         <v>1616.4</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="15">
         <f>SUM(F14,F15)</f>
         <v>2046.5100000000002</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="15">
         <v>2008.23</v>
       </c>
     </row>
@@ -927,26 +935,77 @@
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="9">
+        <v>43955</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>21410</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="4">SUM(C18,-C16)</f>
+        <v>672</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="12">
+        <f>D18*E18</f>
+        <v>3017.28</v>
+      </c>
+      <c r="G18" s="13">
+        <f>SUM(F18,F19)</f>
+        <v>3775.4400000000005</v>
+      </c>
+      <c r="H18" s="13">
+        <v>3775.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10925</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="4"/>
+        <v>312</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="12">
+        <f>D19*E19</f>
+        <v>758.16000000000008</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="13">
-        <f>SUM(G2:G17)</f>
-        <v>12778.800000000001</v>
-      </c>
-      <c r="H18" s="13">
-        <f>SUM(H2:H17)</f>
-        <v>12751.82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+      <c r="G20" s="15">
+        <f>SUM(G2:G19)</f>
+        <v>16554.240000000002</v>
+      </c>
+      <c r="H20" s="15">
+        <f>SUM(H2:H19)</f>
+        <v>16527.259999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="13">
-        <f>SUM(H18,-G18)</f>
-        <v>-26.980000000001382</v>
+      <c r="G21" s="2"/>
+      <c r="H21" s="13">
+        <f>SUM(H20,-G20)</f>
+        <v>-26.980000000003201</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/99ee.xlsx
+++ b/sputnik/personal/ee/99ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -501,10 +501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -850,7 +850,7 @@
         <v>4.49</v>
       </c>
       <c r="F14" s="12">
-        <f>D14*E14</f>
+        <f t="shared" ref="F14:F19" si="3">D14*E14</f>
         <v>1616.4</v>
       </c>
       <c r="G14" s="15">
@@ -877,7 +877,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="12">
-        <f>D15*E15</f>
+        <f t="shared" si="3"/>
         <v>430.11</v>
       </c>
       <c r="G15" s="2"/>
@@ -894,14 +894,14 @@
         <v>20738</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="3">SUM(C16,-C14)</f>
+        <f t="shared" ref="D16:D17" si="4">SUM(C16,-C14)</f>
         <v>232</v>
       </c>
       <c r="E16" s="6">
         <v>4.49</v>
       </c>
       <c r="F16" s="12">
-        <f>D16*E16</f>
+        <f t="shared" si="3"/>
         <v>1041.68</v>
       </c>
       <c r="G16" s="13">
@@ -921,14 +921,14 @@
         <v>10613</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
       <c r="E17" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="12">
-        <f>D17*E17</f>
+        <f t="shared" si="3"/>
         <v>286.74</v>
       </c>
       <c r="G17" s="2"/>
@@ -945,14 +945,14 @@
         <v>21410</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="4">SUM(C18,-C16)</f>
+        <f t="shared" ref="D18:D19" si="5">SUM(C18,-C16)</f>
         <v>672</v>
       </c>
       <c r="E18" s="6">
         <v>4.49</v>
       </c>
       <c r="F18" s="12">
-        <f>D18*E18</f>
+        <f t="shared" si="3"/>
         <v>3017.28</v>
       </c>
       <c r="G18" s="13">
@@ -972,39 +972,90 @@
         <v>10925</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>312</v>
       </c>
       <c r="E19" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="12">
-        <f>D19*E19</f>
+        <f t="shared" si="3"/>
         <v>758.16000000000008</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="9">
+        <v>44000</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>22143</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="6">SUM(C20,-C18)</f>
+        <v>733</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" ref="F20:F21" si="7">D20*E20</f>
+        <v>3291.17</v>
+      </c>
+      <c r="G20" s="13">
+        <f>SUM(F20,F21)</f>
+        <v>4173.26</v>
+      </c>
+      <c r="H20" s="13">
+        <v>4173.26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>11288</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="6"/>
+        <v>363</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="7"/>
+        <v>882.09</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="15">
-        <f>SUM(G2:G19)</f>
-        <v>16554.240000000002</v>
-      </c>
-      <c r="H20" s="15">
-        <f>SUM(H2:H19)</f>
-        <v>16527.259999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+      <c r="G22" s="15">
+        <f>SUM(G2:G21)</f>
+        <v>20727.5</v>
+      </c>
+      <c r="H22" s="15">
+        <f>SUM(H2:H21)</f>
+        <v>20700.519999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="13">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="2"/>
+      <c r="H23" s="13">
+        <f>SUM(H22,-G22)</f>
         <v>-26.980000000003201</v>
       </c>
     </row>

--- a/sputnik/personal/ee/99ee.xlsx
+++ b/sputnik/personal/ee/99ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -501,10 +501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1037,26 +1037,77 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="9">
+        <v>44039</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>22526</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="8">SUM(C22,-C20)</f>
+        <v>383</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" ref="F22:F23" si="9">D22*E22</f>
+        <v>1803.93</v>
+      </c>
+      <c r="G22" s="13">
+        <f>SUM(F22,F23)</f>
+        <v>2204.2800000000002</v>
+      </c>
+      <c r="H22" s="13">
+        <v>2101.1799999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>11445</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="8"/>
+        <v>157</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="9"/>
+        <v>400.34999999999997</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="15">
-        <f>SUM(G2:G21)</f>
-        <v>20727.5</v>
-      </c>
-      <c r="H22" s="15">
-        <f>SUM(H2:H21)</f>
-        <v>20700.519999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+      <c r="G24" s="15">
+        <f>SUM(G2:G23)</f>
+        <v>22931.78</v>
+      </c>
+      <c r="H24" s="15">
+        <f>SUM(H2:H23)</f>
+        <v>22801.699999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="13">
-        <f>SUM(H22,-G22)</f>
-        <v>-26.980000000003201</v>
+      <c r="G25" s="2"/>
+      <c r="H25" s="13">
+        <f>SUM(H24,-G24)</f>
+        <v>-130.08000000000175</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/99ee.xlsx
+++ b/sputnik/personal/ee/99ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -501,10 +501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G24" sqref="G24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1057,11 +1057,11 @@
         <f t="shared" ref="F22:F23" si="9">D22*E22</f>
         <v>1803.93</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="15">
         <f>SUM(F22,F23)</f>
         <v>2204.2800000000002</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="15">
         <v>2101.1799999999998</v>
       </c>
     </row>
@@ -1088,26 +1088,77 @@
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="9">
+        <v>44077</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>22770</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="10">SUM(C24,-C22)</f>
+        <v>244</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" ref="F24:F25" si="11">D24*E24</f>
+        <v>1149.24</v>
+      </c>
+      <c r="G24" s="15">
+        <f>SUM(F24,F25)</f>
+        <v>1353.24</v>
+      </c>
+      <c r="H24" s="15">
+        <v>1289.96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>11525</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="11"/>
+        <v>204</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="15">
-        <f>SUM(G2:G23)</f>
-        <v>22931.78</v>
-      </c>
-      <c r="H24" s="15">
-        <f>SUM(H2:H23)</f>
-        <v>22801.699999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+      <c r="G26" s="15">
+        <f>SUM(G2:G25)</f>
+        <v>24285.02</v>
+      </c>
+      <c r="H26" s="15">
+        <f>SUM(H2:H25)</f>
+        <v>24091.659999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="13">
-        <f>SUM(H24,-G24)</f>
-        <v>-130.08000000000175</v>
+      <c r="G27" s="2"/>
+      <c r="H27" s="13">
+        <f>SUM(H26,-G26)</f>
+        <v>-193.36000000000422</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/99ee.xlsx
+++ b/sputnik/personal/ee/99ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -501,10 +501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:H24"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1054,7 @@
         <v>4.71</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" ref="F22:F23" si="9">D22*E22</f>
+        <f t="shared" ref="F22:F25" si="9">D22*E22</f>
         <v>1803.93</v>
       </c>
       <c r="G22" s="15">
@@ -1098,19 +1098,19 @@
         <v>22770</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" ref="D24:D25" si="10">SUM(C24,-C22)</f>
-        <v>244</v>
+        <f>SUM(C24,-C20)</f>
+        <v>627</v>
       </c>
       <c r="E24" s="6">
         <v>4.71</v>
       </c>
       <c r="F24" s="12">
-        <f t="shared" ref="F24:F25" si="11">D24*E24</f>
-        <v>1149.24</v>
+        <f t="shared" si="9"/>
+        <v>2953.17</v>
       </c>
       <c r="G24" s="15">
         <f>SUM(F24,F25)</f>
-        <v>1353.24</v>
+        <v>3557.52</v>
       </c>
       <c r="H24" s="15">
         <v>1289.96</v>
@@ -1125,40 +1125,91 @@
         <v>11525</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="10"/>
-        <v>80</v>
+        <f>SUM(C25,-C21)</f>
+        <v>237</v>
       </c>
       <c r="E25" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="11"/>
-        <v>204</v>
+        <f t="shared" si="9"/>
+        <v>604.34999999999991</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="9">
+        <v>44116</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>23119</v>
+      </c>
+      <c r="D26" s="3">
+        <f>SUM(C26,-C22)</f>
+        <v>593</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" ref="F26:F27" si="10">D26*E26</f>
+        <v>2793.03</v>
+      </c>
+      <c r="G26" s="15">
+        <f>SUM(F26,F27)</f>
+        <v>3450.9300000000003</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1999.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>11703</v>
+      </c>
+      <c r="D27" s="3">
+        <f>SUM(C27,-C23)</f>
+        <v>258</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="10"/>
+        <v>657.9</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="15">
-        <f>SUM(G2:G25)</f>
-        <v>24285.02</v>
-      </c>
-      <c r="H26" s="15">
-        <f>SUM(H2:H25)</f>
-        <v>24091.659999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
+      <c r="G28" s="15">
+        <f>SUM(G2:G27)</f>
+        <v>29940.23</v>
+      </c>
+      <c r="H28" s="15">
+        <f>SUM(H2:H27)</f>
+        <v>26091.209999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="13">
-        <f>SUM(H26,-G26)</f>
-        <v>-193.36000000000422</v>
+      <c r="G29" s="2"/>
+      <c r="H29" s="13">
+        <f>SUM(H28,-G28)</f>
+        <v>-3849.0200000000041</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/99ee.xlsx
+++ b/sputnik/personal/ee/99ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>к доплате</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>доплата</t>
   </si>
 </sst>
 </file>
@@ -61,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,22 +91,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -121,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -157,11 +148,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -177,15 +181,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -193,7 +189,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -501,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -537,7 +538,7 @@
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -547,63 +548,65 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>43591</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>44000</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>18498</v>
+        <v>22143</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="6"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9">
+        <v>-26.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>9505</v>
+        <v>11288</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>43632</v>
+      <c r="A4" s="7">
+        <v>44039</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>18994</v>
+        <v>22526</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C2)</f>
-        <v>496</v>
+        <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
+        <v>383</v>
       </c>
       <c r="E4" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F4" s="12">
-        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
-        <v>2266.7200000000003</v>
-      </c>
-      <c r="G4" s="15">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
+        <v>1803.93</v>
+      </c>
+      <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>2919.1900000000005</v>
-      </c>
-      <c r="H4" s="15">
-        <v>2879.19</v>
+        <v>2204.2800000000002</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2101.1799999999998</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -612,610 +615,226 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>9778</v>
+        <v>11445</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D15" si="1">SUM(C5,-C3)</f>
-        <v>273</v>
+        <f t="shared" si="0"/>
+        <v>157</v>
       </c>
       <c r="E5" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F5" s="12">
-        <f t="shared" si="0"/>
-        <v>652.47</v>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="1"/>
+        <v>400.34999999999997</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>43676</v>
+      <c r="A6" s="7">
+        <v>44077</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>19389</v>
+        <v>22770</v>
       </c>
       <c r="D6" s="3">
+        <f>SUM(C6,-C4)</f>
+        <v>244</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
-        <v>395</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="12">
-        <f>D6*E6</f>
-        <v>1773.5500000000002</v>
-      </c>
-      <c r="G6" s="13">
+        <v>1149.24</v>
+      </c>
+      <c r="G6" s="11">
         <f>SUM(F6,F7)</f>
-        <v>2186.65</v>
-      </c>
-      <c r="H6" s="13">
-        <v>2211.4499999999998</v>
+        <v>1353.24</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1289.96</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>9948</v>
+        <v>11525</v>
       </c>
       <c r="D7" s="3">
+        <f>SUM(C7,-C5)</f>
+        <v>80</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="12">
-        <f>D7*E7</f>
-        <v>413.1</v>
+        <v>204</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>43711</v>
+      <c r="A8" s="7">
+        <v>44116</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>19673</v>
+        <v>23119</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>284</v>
+        <f>SUM(C8,-C6)</f>
+        <v>349</v>
       </c>
       <c r="E8" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="12">
-        <f t="shared" ref="F8:F13" si="2">D8*E8</f>
-        <v>1275.1600000000001</v>
-      </c>
-      <c r="G8" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
+        <v>1643.79</v>
+      </c>
+      <c r="G8" s="11">
         <f>SUM(F8,F9)</f>
-        <v>1600.7800000000002</v>
-      </c>
-      <c r="H8" s="13">
-        <v>1618</v>
+        <v>2097.69</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1999.55</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>10082</v>
+        <v>11703</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>134</v>
+        <f>SUM(C9,-C7)</f>
+        <v>178</v>
       </c>
       <c r="E9" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
         <f t="shared" si="2"/>
-        <v>325.62</v>
+        <v>453.9</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>43752</v>
+      <c r="A10" s="14">
+        <v>44160</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
-        <v>19990</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>317</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="12">
-        <f t="shared" si="2"/>
-        <v>1423.3300000000002</v>
-      </c>
-      <c r="G10" s="13">
-        <f>SUM(F10,F11)</f>
-        <v>1802.4100000000003</v>
-      </c>
-      <c r="H10" s="13">
-        <v>1802.41</v>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="9">
+        <v>291.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="7">
+        <v>44165</v>
+      </c>
       <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>24115</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUM(C11,-C8)</f>
+        <v>996</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" ref="F11:F12" si="3">D11*E11</f>
+        <v>4691.16</v>
+      </c>
+      <c r="G11" s="11">
+        <f>SUM(F11,F12)</f>
+        <v>5945.76</v>
+      </c>
+      <c r="H11" s="11">
+        <v>5945.76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
-        <v>10238</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>156</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="2"/>
-        <v>379.08000000000004</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>43794</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3">
+        <v>12195</v>
+      </c>
+      <c r="D12" s="3">
+        <f>SUM(C12,-C9)</f>
+        <v>492</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="3"/>
+        <v>1254.5999999999999</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="11">
+        <f>SUM(G2:G12)</f>
+        <v>11600.970000000001</v>
+      </c>
+      <c r="H13" s="11">
+        <f>SUM(H2:H12)</f>
+        <v>11600.970000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="9">
+        <f>SUM(H13,-G13)</f>
         <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>20146</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="1"/>
-        <v>156</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" si="2"/>
-        <v>700.44</v>
-      </c>
-      <c r="G12" s="13">
-        <f>SUM(F12,F13)</f>
-        <v>894.84</v>
-      </c>
-      <c r="H12" s="13">
-        <v>904.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10318</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="2"/>
-        <v>194.4</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>43829</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>20506</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="12">
-        <f t="shared" ref="F14:F19" si="3">D14*E14</f>
-        <v>1616.4</v>
-      </c>
-      <c r="G14" s="15">
-        <f>SUM(F14,F15)</f>
-        <v>2046.5100000000002</v>
-      </c>
-      <c r="H14" s="15">
-        <v>2008.23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>10495</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="1"/>
-        <v>177</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="3"/>
-        <v>430.11</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>43920</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>20738</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="4">SUM(C16,-C14)</f>
-        <v>232</v>
-      </c>
-      <c r="E16" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="3"/>
-        <v>1041.68</v>
-      </c>
-      <c r="G16" s="13">
-        <f>SUM(F16,F17)</f>
-        <v>1328.42</v>
-      </c>
-      <c r="H16" s="13">
-        <v>1328.42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>10613</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="4"/>
-        <v>118</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="3"/>
-        <v>286.74</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>43955</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>21410</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="5">SUM(C18,-C16)</f>
-        <v>672</v>
-      </c>
-      <c r="E18" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="12">
-        <f t="shared" si="3"/>
-        <v>3017.28</v>
-      </c>
-      <c r="G18" s="13">
-        <f>SUM(F18,F19)</f>
-        <v>3775.4400000000005</v>
-      </c>
-      <c r="H18" s="13">
-        <v>3775.44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>10925</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="5"/>
-        <v>312</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F19" s="12">
-        <f t="shared" si="3"/>
-        <v>758.16000000000008</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>44000</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>22143</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:D21" si="6">SUM(C20,-C18)</f>
-        <v>733</v>
-      </c>
-      <c r="E20" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F20" s="12">
-        <f t="shared" ref="F20:F21" si="7">D20*E20</f>
-        <v>3291.17</v>
-      </c>
-      <c r="G20" s="13">
-        <f>SUM(F20,F21)</f>
-        <v>4173.26</v>
-      </c>
-      <c r="H20" s="13">
-        <v>4173.26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>11288</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="6"/>
-        <v>363</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F21" s="12">
-        <f t="shared" si="7"/>
-        <v>882.09</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>44039</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>22526</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" ref="D22:D23" si="8">SUM(C22,-C20)</f>
-        <v>383</v>
-      </c>
-      <c r="E22" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="12">
-        <f t="shared" ref="F22:F25" si="9">D22*E22</f>
-        <v>1803.93</v>
-      </c>
-      <c r="G22" s="15">
-        <f>SUM(F22,F23)</f>
-        <v>2204.2800000000002</v>
-      </c>
-      <c r="H22" s="15">
-        <v>2101.1799999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>11445</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="8"/>
-        <v>157</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="12">
-        <f t="shared" si="9"/>
-        <v>400.34999999999997</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>44077</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>22770</v>
-      </c>
-      <c r="D24" s="3">
-        <f>SUM(C24,-C20)</f>
-        <v>627</v>
-      </c>
-      <c r="E24" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F24" s="12">
-        <f t="shared" si="9"/>
-        <v>2953.17</v>
-      </c>
-      <c r="G24" s="15">
-        <f>SUM(F24,F25)</f>
-        <v>3557.52</v>
-      </c>
-      <c r="H24" s="15">
-        <v>1289.96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>11525</v>
-      </c>
-      <c r="D25" s="3">
-        <f>SUM(C25,-C21)</f>
-        <v>237</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F25" s="12">
-        <f t="shared" si="9"/>
-        <v>604.34999999999991</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>44116</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
-        <v>23119</v>
-      </c>
-      <c r="D26" s="3">
-        <f>SUM(C26,-C22)</f>
-        <v>593</v>
-      </c>
-      <c r="E26" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F26" s="12">
-        <f t="shared" ref="F26:F27" si="10">D26*E26</f>
-        <v>2793.03</v>
-      </c>
-      <c r="G26" s="15">
-        <f>SUM(F26,F27)</f>
-        <v>3450.9300000000003</v>
-      </c>
-      <c r="H26" s="15">
-        <v>1999.55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>11703</v>
-      </c>
-      <c r="D27" s="3">
-        <f>SUM(C27,-C23)</f>
-        <v>258</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F27" s="12">
-        <f t="shared" si="10"/>
-        <v>657.9</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="15">
-        <f>SUM(G2:G27)</f>
-        <v>29940.23</v>
-      </c>
-      <c r="H28" s="15">
-        <f>SUM(H2:H27)</f>
-        <v>26091.209999999995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="13">
-        <f>SUM(H28,-G28)</f>
-        <v>-3849.0200000000041</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/99ee.xlsx
+++ b/sputnik/personal/ee/99ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -67,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +92,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -165,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -189,12 +182,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -502,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -601,11 +595,11 @@
         <f t="shared" ref="F4:F7" si="1">D4*E4</f>
         <v>1803.93</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="14">
         <f>SUM(F4,F5)</f>
         <v>2204.2800000000002</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="14">
         <v>2101.1799999999998</v>
       </c>
     </row>
@@ -628,8 +622,8 @@
         <f t="shared" si="1"/>
         <v>400.34999999999997</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -652,11 +646,11 @@
         <f t="shared" si="1"/>
         <v>1149.24</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="14">
         <f>SUM(F6,F7)</f>
         <v>1353.24</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="14">
         <v>1289.96</v>
       </c>
     </row>
@@ -679,8 +673,8 @@
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -703,11 +697,11 @@
         <f t="shared" ref="F8:F9" si="2">D8*E8</f>
         <v>1643.79</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="14">
         <f>SUM(F8,F9)</f>
         <v>2097.69</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="14">
         <v>1999.55</v>
       </c>
     </row>
@@ -730,11 +724,11 @@
         <f t="shared" si="2"/>
         <v>453.9</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>44160</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -749,11 +743,11 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>0</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="9">
+      <c r="G10" s="15"/>
+      <c r="H10" s="14">
         <v>291.5</v>
       </c>
     </row>
@@ -778,11 +772,11 @@
         <f t="shared" ref="F11:F12" si="3">D11*E11</f>
         <v>4691.16</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="14">
         <f>SUM(F11,F12)</f>
         <v>5945.76</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="14">
         <v>5945.76</v>
       </c>
     </row>
@@ -805,30 +799,81 @@
         <f t="shared" si="3"/>
         <v>1254.5999999999999</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="12" t="s">
+      <c r="A13" s="7">
+        <v>44207</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>24866</v>
+      </c>
+      <c r="D13" s="3">
+        <f>SUM(C13,-C11)</f>
+        <v>751</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ref="F13:F14" si="4">D13*E13</f>
+        <v>3537.21</v>
+      </c>
+      <c r="G13" s="14">
+        <f>SUM(F13,F14)</f>
+        <v>4496.01</v>
+      </c>
+      <c r="H13" s="14">
+        <v>4469.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>12571</v>
+      </c>
+      <c r="D14" s="3">
+        <f>SUM(C14,-C12)</f>
+        <v>376</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="4"/>
+        <v>958.8</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="11">
-        <f>SUM(G2:G12)</f>
-        <v>11600.970000000001</v>
-      </c>
-      <c r="H13" s="11">
-        <f>SUM(H2:H12)</f>
-        <v>11600.970000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
+      <c r="G15" s="14">
+        <f>SUM(G2:G14)</f>
+        <v>16096.980000000001</v>
+      </c>
+      <c r="H15" s="14">
+        <f>SUM(H2:H14)</f>
+        <v>16069.980000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="9">
-        <f>SUM(H13,-G13)</f>
-        <v>0</v>
+      <c r="G16" s="2"/>
+      <c r="H16" s="9">
+        <f>SUM(H15,-G15)</f>
+        <v>-27</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/99ee.xlsx
+++ b/sputnik/personal/ee/99ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -854,25 +854,127 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="11" t="s">
+      <c r="A15" s="7">
+        <v>44242</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>25566</v>
+      </c>
+      <c r="D15" s="3">
+        <f>SUM(C15,-C13)</f>
+        <v>700</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" ref="F15:F16" si="5">D15*E15</f>
+        <v>3297</v>
+      </c>
+      <c r="G15" s="14">
+        <f>SUM(F15,F16)</f>
+        <v>4217.55</v>
+      </c>
+      <c r="H15" s="14">
+        <v>4217.55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>12932</v>
+      </c>
+      <c r="D16" s="3">
+        <f>SUM(C16,-C14)</f>
+        <v>361</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="5"/>
+        <v>920.55</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>44277</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>26129</v>
+      </c>
+      <c r="D17" s="3">
+        <f>SUM(C17,-C15)</f>
+        <v>563</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" ref="F17:F18" si="6">D17*E17</f>
+        <v>2651.73</v>
+      </c>
+      <c r="G17" s="14">
+        <f>SUM(F17,F18)</f>
+        <v>3419.2799999999997</v>
+      </c>
+      <c r="H17" s="14">
+        <v>3419.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>13233</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(C18,-C16)</f>
+        <v>301</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="6"/>
+        <v>767.55</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="14">
-        <f>SUM(G2:G14)</f>
-        <v>16096.980000000001</v>
-      </c>
-      <c r="H15" s="14">
-        <f>SUM(H2:H14)</f>
-        <v>16069.980000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="G19" s="14">
+        <f>SUM(G2:G16)</f>
+        <v>20314.530000000002</v>
+      </c>
+      <c r="H19" s="14">
+        <f>SUM(H2:H16)</f>
+        <v>20287.530000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="9">
-        <f>SUM(H15,-G15)</f>
+      <c r="G20" s="2"/>
+      <c r="H20" s="9">
+        <f>SUM(H19,-G19)</f>
         <v>-27</v>
       </c>
     </row>

--- a/sputnik/personal/ee/99ee.xlsx
+++ b/sputnik/personal/ee/99ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -813,14 +813,14 @@
         <v>24866</v>
       </c>
       <c r="D13" s="3">
-        <f>SUM(C13,-C11)</f>
+        <f t="shared" ref="D13:D20" si="4">SUM(C13,-C11)</f>
         <v>751</v>
       </c>
       <c r="E13" s="6">
         <v>4.71</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" ref="F13:F14" si="4">D13*E13</f>
+        <f t="shared" ref="F13:F14" si="5">D13*E13</f>
         <v>3537.21</v>
       </c>
       <c r="G13" s="14">
@@ -840,14 +840,14 @@
         <v>12571</v>
       </c>
       <c r="D14" s="3">
-        <f>SUM(C14,-C12)</f>
+        <f t="shared" si="4"/>
         <v>376</v>
       </c>
       <c r="E14" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>958.8</v>
       </c>
       <c r="G14" s="15"/>
@@ -864,14 +864,14 @@
         <v>25566</v>
       </c>
       <c r="D15" s="3">
-        <f>SUM(C15,-C13)</f>
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
       <c r="E15" s="6">
         <v>4.71</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" ref="F15:F16" si="5">D15*E15</f>
+        <f t="shared" ref="F15:F16" si="6">D15*E15</f>
         <v>3297</v>
       </c>
       <c r="G15" s="14">
@@ -891,14 +891,14 @@
         <v>12932</v>
       </c>
       <c r="D16" s="3">
-        <f>SUM(C16,-C14)</f>
+        <f t="shared" si="4"/>
         <v>361</v>
       </c>
       <c r="E16" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>920.55</v>
       </c>
       <c r="G16" s="15"/>
@@ -915,14 +915,14 @@
         <v>26129</v>
       </c>
       <c r="D17" s="3">
-        <f>SUM(C17,-C15)</f>
+        <f t="shared" si="4"/>
         <v>563</v>
       </c>
       <c r="E17" s="6">
         <v>4.71</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" ref="F17:F18" si="6">D17*E17</f>
+        <f t="shared" ref="F17:F18" si="7">D17*E17</f>
         <v>2651.73</v>
       </c>
       <c r="G17" s="14">
@@ -942,39 +942,90 @@
         <v>13233</v>
       </c>
       <c r="D18" s="3">
-        <f>SUM(C18,-C16)</f>
+        <f t="shared" si="4"/>
         <v>301</v>
       </c>
       <c r="E18" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>767.55</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="11" t="s">
+      <c r="A19" s="7">
+        <v>44320</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>26709</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="4"/>
+        <v>580</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" ref="F19:F20" si="8">D19*E19</f>
+        <v>2731.8</v>
+      </c>
+      <c r="G19" s="14">
+        <f>SUM(F19,F20)</f>
+        <v>3491.7000000000003</v>
+      </c>
+      <c r="H19" s="14">
+        <v>3491.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>13531</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="8"/>
+        <v>759.9</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G21" s="14">
         <f>SUM(G2:G16)</f>
         <v>20314.530000000002</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H21" s="14">
         <f>SUM(H2:H16)</f>
         <v>20287.530000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="9">
-        <f>SUM(H19,-G19)</f>
+      <c r="G22" s="2"/>
+      <c r="H22" s="9">
+        <f>SUM(H21,-G21)</f>
         <v>-27</v>
       </c>
     </row>

--- a/sputnik/personal/ee/99ee.xlsx
+++ b/sputnik/personal/ee/99ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1007,25 +1007,76 @@
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="11" t="s">
+      <c r="A21" s="7">
+        <v>44392</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>27276</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" ref="D21:D22" si="9">SUM(C21,-C19)</f>
+        <v>567</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" ref="F21:F22" si="10">D21*E21</f>
+        <v>2812.32</v>
+      </c>
+      <c r="G21" s="14">
+        <f>SUM(F21,F22)</f>
+        <v>3468.92</v>
+      </c>
+      <c r="H21" s="14">
+        <v>3468.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>13776</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="9"/>
+        <v>245</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="10"/>
+        <v>656.6</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G23" s="14">
         <f>SUM(G2:G16)</f>
         <v>20314.530000000002</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H23" s="14">
         <f>SUM(H2:H16)</f>
         <v>20287.530000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="9">
-        <f>SUM(H21,-G21)</f>
+      <c r="G24" s="2"/>
+      <c r="H24" s="9">
+        <f>SUM(H23,-G23)</f>
         <v>-27</v>
       </c>
     </row>

--- a/sputnik/personal/ee/99ee.xlsx
+++ b/sputnik/personal/ee/99ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1058,25 +1058,76 @@
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="11" t="s">
+      <c r="A23" s="7">
+        <v>44440</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>27545</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ref="D23:D24" si="11">SUM(C23,-C21)</f>
+        <v>269</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" ref="F23:F24" si="12">D23*E23</f>
+        <v>1334.24</v>
+      </c>
+      <c r="G23" s="14">
+        <f>SUM(F23,F24)</f>
+        <v>1621</v>
+      </c>
+      <c r="H23" s="14">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>13883</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="11"/>
+        <v>107</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="12"/>
+        <v>286.76</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="14">
-        <f>SUM(G2:G16)</f>
-        <v>20314.530000000002</v>
-      </c>
-      <c r="H23" s="14">
-        <f>SUM(H2:H16)</f>
-        <v>20287.530000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="G25" s="14">
+        <f>SUM(G2:G24)</f>
+        <v>32315.43</v>
+      </c>
+      <c r="H25" s="14">
+        <f>SUM(H2:H24)</f>
+        <v>32288.43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="9">
-        <f>SUM(H23,-G23)</f>
+      <c r="G26" s="2"/>
+      <c r="H26" s="9">
+        <f>SUM(H25,-G25)</f>
         <v>-27</v>
       </c>
     </row>

--- a/sputnik/personal/ee/99ee.xlsx
+++ b/sputnik/personal/ee/99ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="H10" sqref="H7:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1109,25 +1109,76 @@
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="11" t="s">
+      <c r="A25" s="7">
+        <v>44495</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>27948</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ref="D25:D26" si="13">SUM(C25,-C23)</f>
+        <v>403</v>
+      </c>
+      <c r="E25" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" ref="F25:F26" si="14">D25*E25</f>
+        <v>1998.8799999999999</v>
+      </c>
+      <c r="G25" s="14">
+        <f>SUM(F25,F26)</f>
+        <v>2518.8000000000002</v>
+      </c>
+      <c r="H25" s="14">
+        <v>2518.8000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>14077</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="13"/>
+        <v>194</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="14"/>
+        <v>519.92000000000007</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="14">
-        <f>SUM(G2:G24)</f>
-        <v>32315.43</v>
-      </c>
-      <c r="H25" s="14">
-        <f>SUM(H2:H24)</f>
-        <v>32288.43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+      <c r="G27" s="14">
+        <f>SUM(G2:G26)</f>
+        <v>34834.230000000003</v>
+      </c>
+      <c r="H27" s="14">
+        <f>SUM(H2:H26)</f>
+        <v>34807.230000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="9">
-        <f>SUM(H25,-G25)</f>
+      <c r="G28" s="2"/>
+      <c r="H28" s="9">
+        <f>SUM(H27,-G27)</f>
         <v>-27</v>
       </c>
     </row>

--- a/sputnik/personal/ee/99ee.xlsx
+++ b/sputnik/personal/ee/99ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H7:H10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1160,25 +1160,76 @@
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="11" t="s">
+      <c r="A27" s="7">
+        <v>44539</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>29051</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" ref="D27:D28" si="15">SUM(C27,-C25)</f>
+        <v>1103</v>
+      </c>
+      <c r="E27" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" ref="F27:F28" si="16">D27*E27</f>
+        <v>5470.88</v>
+      </c>
+      <c r="G27" s="14">
+        <f>SUM(F27,F28)</f>
+        <v>6982.4</v>
+      </c>
+      <c r="H27" s="14">
+        <v>6982.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>14641</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="15"/>
+        <v>564</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="16"/>
+        <v>1511.52</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="14">
-        <f>SUM(G2:G26)</f>
-        <v>34834.230000000003</v>
-      </c>
-      <c r="H27" s="14">
-        <f>SUM(H2:H26)</f>
-        <v>34807.230000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
+      <c r="G29" s="14">
+        <f>SUM(G2:G28)</f>
+        <v>41816.630000000005</v>
+      </c>
+      <c r="H29" s="14">
+        <f>SUM(H2:H28)</f>
+        <v>41789.630000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="9">
-        <f>SUM(H27,-G27)</f>
+      <c r="G30" s="2"/>
+      <c r="H30" s="9">
+        <f>SUM(H29,-G29)</f>
         <v>-27</v>
       </c>
     </row>
